--- a/medicine/Psychotrope/Brasserie_de_l'Abbaye_de_Neuzelle/Brasserie_de_l'Abbaye_de_Neuzelle.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_l'Abbaye_de_Neuzelle/Brasserie_de_l'Abbaye_de_Neuzelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brasserie_de_l%27Abbaye_de_Neuzelle</t>
+          <t>Brasserie_de_l'Abbaye_de_Neuzelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie de l'Abbaye de Neuzelle (Klosterbrauerei Neuzelle GmbH) est une brasserie à Neuzelle, dans le Land de Brandebourg, en Allemagne. Elle est fondée en 1589 par l'abbaye voisine. Elle produit principalement des spécialités de bière blonde allemande : la bière noire Schwarzer Abt (Abbé noir), de la porter et des bières fruitées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brasserie_de_l%27Abbaye_de_Neuzelle</t>
+          <t>Brasserie_de_l'Abbaye_de_Neuzelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1416, les paysans doivent payer sept mass de houblon en intérêts à l'abbaye. Toutefois ce n'est qu'en 1589 que l'empereur Rodolphe II du Saint-Empire autorise la vente de la bière dans les alentours. En 1817, la sécularisation du monastère et de la brasserie a lieu. La brasserie connaît un incendie grave en 1892 et est reconstruite en 1902. La brasserie est en 1948 expropriée et nationalisée. En 1968, le nom devient simplement Brauerei Neuzelle. Après la fin de la RDA, la brasserie reprend son nom d'origine et est privatisée en 1992.
 Par la suite, un différend se pose autour de la Schwarzer Abt qui ne correspond plus avec la Reinheitsgebot, car on ajoute du sucre lors de la fermentation. La Schwarzer Abt est faite selon une recette écrite il y a quatre cents ans, avec déjà du sucre. Le litige opposant la brasserie au gouvernement régional de Brandebourg se termine après treize années de procédures par un jugement du tribunal administratif fédéral en faveur de la brasserie.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brasserie_de_l%27Abbaye_de_Neuzelle</t>
+          <t>Brasserie_de_l'Abbaye_de_Neuzelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,21 +560,23 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bière abbatiale:
 Schwarzer Abt
 Neuzeller Pilsner
 Neuzeller Bock
-Neuzeller Porter[1]
+Neuzeller Porter
 Neuzeller Malz
 Bières aromatisées:
-Apl El Verde &amp; Kir[2]
+Apl El Verde &amp; Kir
 Kirsch-Bier
 Apfel-Bier
 Radler Fritz,
-Spargel-Bier[3],
-Kartoffel-Bier[4]
+Spargel-Bier,
+Kartoffel-Bier
 Bières de bien-être:
 Anti Aging Bier
 Original Badebier
